--- a/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.34.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.34.xlsx
@@ -223,6 +223,9 @@
     <t>?med</t>
   </si>
   <si>
+    <t>[?]med</t>
+  </si>
+  <si>
     <t>לא. מסדרה של בדיקות. הגלוק...</t>
   </si>
   <si>
@@ -293,9 +296,6 @@
   </si>
   <si>
     <t>מישהו בכיר ממך ראה את הבדיקה הזאת?</t>
-  </si>
-  <si>
-    <t>[?]med</t>
   </si>
   <si>
     <t xml:space="preserve">כן. בהחלט. במחלקה בהחלט. אנחנו עובדים בצוות במחלקה. </t>
@@ -822,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -892,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1046,7 +1046,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -1466,7 +1466,7 @@
         <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
@@ -1502,13 +1502,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
         <v>29</v>
@@ -1530,13 +1530,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
         <v>17</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
         <v>21</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1827,7 +1827,7 @@
         <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -1897,7 +1897,7 @@
         <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -1970,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -1995,7 +1995,7 @@
         <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>60</v>
@@ -2009,7 +2009,7 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
         <v>21</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B100" t="s">
         <v>60</v>
@@ -2219,7 +2219,7 @@
         <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -2247,7 +2247,7 @@
         <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2320,7 +2320,7 @@
         <v>132</v>
       </c>
       <c r="C110" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
